--- a/server/branch/protected/models/excel/example/水闸模板.xlsx
+++ b/server/branch/protected/models/excel/example/水闸模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -70,17 +70,18 @@
     <t>管理者负责人电话</t>
   </si>
   <si>
-    <t>图片</t>
-  </si>
-  <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>水闸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,6 +126,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -143,13 +181,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -416,42 +460,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="5"/>
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,16 +542,21 @@
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/server/branch/protected/models/excel/example/水闸模板.xlsx
+++ b/server/branch/protected/models/excel/example/水闸模板.xlsx
@@ -460,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,6 +546,56 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>232</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>56</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>

--- a/server/branch/protected/models/excel/example/水闸模板.xlsx
+++ b/server/branch/protected/models/excel/example/水闸模板.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>经度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>水闸名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -460,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,17 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -493,36 +489,35 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -539,14 +534,11 @@
       <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>232</v>
       </c>
@@ -575,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3">
         <v>8</v>
@@ -590,15 +582,12 @@
         <v>8</v>
       </c>
       <c r="O3">
-        <v>8</v>
-      </c>
-      <c r="P3">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
